--- a/data/County Population .xlsx
+++ b/data/County Population .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10829342_polimi_it/Documents/PhD in Nuclear Sciences and Technology/Doctoral Research/Joint Research Paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10499872_polimi_it/Documents/Python/Cursor/Budget_allocation_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B277605-74EF-4207-AC0E-B5264A15A9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{6B277605-74EF-4207-AC0E-B5264A15A9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B2069DF-BF44-AD43-B253-8AF025A8A1DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F05CF47E-1EE5-4445-B575-868BF6716990}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{F05CF47E-1EE5-4445-B575-868BF6716990}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>County</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -187,16 +190,17 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -533,20 +537,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0D56E6-2548-4002-B4C1-C2147C888BBD}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -566,7 +570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>1</f>
         <v>1</v>
@@ -588,7 +592,7 @@
         <v>-95.433300000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
@@ -610,7 +614,7 @@
         <v>-94.795000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A5" si="1">A3+1</f>
         <v>3</v>
@@ -632,7 +636,7 @@
         <v>-94.686400000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -654,7 +658,7 @@
         <v>-94.345200000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -675,7 +679,7 @@
         <v>-93.736599999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -696,7 +700,7 @@
         <v>-94.739099999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -717,7 +721,7 @@
         <v>-94.810599999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -738,7 +742,7 @@
         <v>-95.310299999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -759,50 +763,71 @@
         <v>-95.814300000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C10)</f>
+        <v>6812401</v>
+      </c>
+      <c r="D12" s="9">
+        <f>SUM(D2:D10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" xr:uid="{894EDCF5-CEDC-42C2-AE26-28275678DD3B}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{7EB39FD7-008B-401B-A66C-61C14A05A66C}"/>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{894EDCF5-CEDC-42C2-AE26-28275678DD3B}"/>
+    <hyperlink ref="A18" r:id="rId2" xr:uid="{7EB39FD7-008B-401B-A66C-61C14A05A66C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
